--- a/realEstate2018.xlsx
+++ b/realEstate2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teses\msc\202021\sanam\masterEmpirical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOC\UC\PDS_Analytics\202122\Week03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5435F9E6-9561-4DB6-9AB5-8E1F69042CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A62326-4067-4D08-8323-067BAD90481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="372" windowWidth="19488" windowHeight="11988" xr2:uid="{AAD60663-004E-4333-9356-C2E315362D14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAD60663-004E-4333-9356-C2E315362D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1134,12 +1134,6 @@
     <t>population</t>
   </si>
   <si>
-    <t>5,213,148</t>
-  </si>
-  <si>
-    <t>339,035</t>
-  </si>
-  <si>
     <t>657.9</t>
   </si>
   <si>
@@ -1161,12 +1155,6 @@
     <t xml:space="preserve"> 10,283,822</t>
   </si>
   <si>
-    <t>1,064,419</t>
-  </si>
-  <si>
-    <t>4,148,729</t>
-  </si>
-  <si>
     <t>collected waste</t>
   </si>
   <si>
@@ -1177,6 +1165,18 @@
   </si>
   <si>
     <t>wage</t>
+  </si>
+  <si>
+    <t>5213148</t>
+  </si>
+  <si>
+    <t>1064419</t>
+  </si>
+  <si>
+    <t>4148729</t>
+  </si>
+  <si>
+    <t>339035</t>
   </si>
 </sst>
 </file>
@@ -1370,13 +1370,12 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A7F901-3057-4468-B965-D8B8E53885C6}" name="Table1" displayName="Table1" ref="A2:L354" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="A2:L354" xr:uid="{36A7F901-3057-4468-B965-D8B8E53885C6}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{19F721AC-FEAA-4B5B-8342-454AA5A2F73F}" name="Portugal" dataCellStyle="TableEvenlineData"/>
-    <tableColumn id="2" xr3:uid="{02055CC7-63A1-4D8C-98A6-61DB8D641E49}" name="5,213,148" dataCellStyle="TableEvenlineData"/>
-    <tableColumn id="11" xr3:uid="{A8FD90EF-2DCB-48B0-9B99-F87242BCCDD6}" name="1,064,419" dataCellStyle="TableOddlineData"/>
-    <tableColumn id="12" xr3:uid="{41E6AEA4-8C76-4033-A1EE-BBE85FA52934}" name="4,148,729" dataCellStyle="TableOddlineData"/>
-    <tableColumn id="3" xr3:uid="{BC25814A-0D83-4AF9-AE19-DAC6607DC3BA}" name="339,035" dataCellStyle="TableEvenlineData"/>
+    <tableColumn id="2" xr3:uid="{02055CC7-63A1-4D8C-98A6-61DB8D641E49}" name="5213148" dataCellStyle="TableEvenlineData"/>
+    <tableColumn id="11" xr3:uid="{A8FD90EF-2DCB-48B0-9B99-F87242BCCDD6}" name="1064419" dataCellStyle="TableOddlineData"/>
+    <tableColumn id="12" xr3:uid="{41E6AEA4-8C76-4033-A1EE-BBE85FA52934}" name="4148729" dataCellStyle="TableOddlineData"/>
+    <tableColumn id="3" xr3:uid="{BC25814A-0D83-4AF9-AE19-DAC6607DC3BA}" name="339035" dataCellStyle="TableEvenlineData"/>
     <tableColumn id="4" xr3:uid="{F406A352-01BC-46DA-938B-E7A091D8C58A}" name="657.9" dataCellStyle="TableEvenlineData"/>
     <tableColumn id="5" xr3:uid="{05A15FEE-3CEE-43D9-9C5D-504E13C84B1A}" name="32.4" dataCellStyle="TableEvenlineData"/>
     <tableColumn id="6" xr3:uid="{FE2B866D-6B0E-4EA4-ACF3-630EC7B0AAE0}" name="967" dataCellStyle="TableEvenlineData"/>
@@ -1696,38 +1695,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E20E2BD-6DAA-4C9D-99D5-5A3A5891CEC3}">
   <dimension ref="A1:N354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B327" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>350</v>
@@ -1739,7 +1738,7 @@
         <v>352</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>354</v>
@@ -1754,46 +1753,46 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>9786312</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>3574394</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>231566</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>21057</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>15885</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>8197</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>17972</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>8589</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>11249</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>84827</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>8868</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>403922</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>18131</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>116769</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>181651</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>34017</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>6446</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>46909</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>413262</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>15759</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>48424</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>153043</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>21455</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>11958</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2857,7 +2856,7 @@
         <v>131824</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>1721038</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>20950</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>29509</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>165629</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>137248</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3123,7 +3122,7 @@
         <v>174068</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>66186</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>86094</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>214936</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>62443</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>138569</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>68373</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>21671</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>38287</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>21462</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>96239</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>79499</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>299879</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>86812</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>39423</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>9156</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>15022</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>12053</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>418018</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>53490</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>18971</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>15623</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>19131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>18562</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>56651</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>46815</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>51766</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>56707</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>191574</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>10755</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>5815</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>25025</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>9737</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>15879</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>7180</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>5393</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>7752</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>7757</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>6569</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>49910</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>108204</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>33627</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>14597</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>21886</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>8527</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>2223958</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>357246</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>53883</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>12558</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>13672</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>51573</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>25672</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>14224</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>11714</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>26585</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>10449</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>78369</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>362598</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>46163</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -6087,7 +6086,7 @@
         <v>24194</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>27437</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -6163,7 +6162,7 @@
         <v>77773</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>26020</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -6239,7 +6238,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>10276</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>23896</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>54219</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>11474</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>22719</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>435482</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>11125</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>35208</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>133940</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>17590</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>59130</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>17159</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>19946</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>11882</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>12732</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>25315</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>8902</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>19448</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>13906</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>17399</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -7151,7 +7150,7 @@
         <v>11466</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>6949</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>285401</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>12188</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>15846</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>5652</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>125082</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>38466</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>52004</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>23372</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>253426</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -7683,7 +7682,7 @@
         <v>4786</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>14044</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>18723</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -7835,7 +7834,7 @@
         <v>13116</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>9938</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>7229</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>10573</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>15587</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -8025,7 +8024,7 @@
         <v>11673</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>26745</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>97207</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>9722</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>81298</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -8253,7 +8252,7 @@
         <v>52448</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -8291,7 +8290,7 @@
         <v>8259</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>5083</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -8367,7 +8366,7 @@
         <v>4876</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -8405,7 +8404,7 @@
         <v>7448</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>233752</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>35608</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>12911</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>21125</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>8023</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>6388</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -8823,7 +8822,7 @@
         <v>14768</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>37127</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -8899,7 +8898,7 @@
         <v>35089</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -8937,7 +8936,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>7392</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -9013,7 +9012,7 @@
         <v>214757</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -9089,7 +9088,7 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>7021</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>47394</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -9203,7 +9202,7 @@
         <v>5693</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>26879</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -9317,7 +9316,7 @@
         <v>12599</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -9355,7 +9354,7 @@
         <v>39295</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>8667</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -9507,7 +9506,7 @@
         <v>10876</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>22577</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>9009</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>2840006</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>2840006</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>208</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>19395</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>209</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>169070</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>210</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>180833</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>211</v>
       </c>
@@ -9811,7 +9810,7 @@
         <v>75567</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>212</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>212094</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>213</v>
       </c>
@@ -9887,7 +9886,7 @@
         <v>506654</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>210401</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>215</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>83649</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
@@ -10001,7 +10000,7 @@
         <v>64571</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>217</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>56596</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>218</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>158716</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>175721</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>220</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>64222</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>221</v>
       </c>
@@ -10191,7 +10190,7 @@
         <v>166403</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
@@ -10229,7 +10228,7 @@
         <v>51421</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>116044</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -10305,7 +10304,7 @@
         <v>387236</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>141415</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>708714</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -10419,7 +10418,7 @@
         <v>93517</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>11783</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>14598</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>24681</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>231</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>28809</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -10609,7 +10608,7 @@
         <v>13647</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>117213</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
@@ -10685,7 +10684,7 @@
         <v>8341</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>235</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>6780</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>236</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>237</v>
       </c>
@@ -10799,7 +10798,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>238</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>33677</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>6978</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>240</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>4628</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>7882</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
@@ -10989,7 +10988,7 @@
         <v>6261</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>13839</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>245</v>
       </c>
@@ -11103,7 +11102,7 @@
         <v>14497</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>246</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>5521</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
@@ -11179,7 +11178,7 @@
         <v>238017</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>248</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>22676</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>7121</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>250</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>22402</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>251</v>
       </c>
@@ -11331,7 +11330,7 @@
         <v>30144</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>252</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>23798</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>9319</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -11445,7 +11444,7 @@
         <v>17805</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -11483,7 +11482,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>256</v>
       </c>
@@ -11521,7 +11520,7 @@
         <v>20389</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>257</v>
       </c>
@@ -11559,7 +11558,7 @@
         <v>21344</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>258</v>
       </c>
@@ -11597,7 +11596,7 @@
         <v>57611</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>106268</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>260</v>
       </c>
@@ -11673,7 +11672,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>261</v>
       </c>
@@ -11711,7 +11710,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>262</v>
       </c>
@@ -11749,7 +11748,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
@@ -11787,7 +11786,7 @@
         <v>7965</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>264</v>
       </c>
@@ -11825,7 +11824,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>265</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>266</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>20852</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>267</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>268</v>
       </c>
@@ -11977,7 +11976,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>269</v>
       </c>
@@ -12015,7 +12014,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>270</v>
       </c>
@@ -12053,7 +12052,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>271</v>
       </c>
@@ -12091,7 +12090,7 @@
         <v>6221</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>272</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>15189</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
@@ -12167,7 +12166,7 @@
         <v>22493</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>274</v>
       </c>
@@ -12205,7 +12204,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>275</v>
       </c>
@@ -12243,7 +12242,7 @@
         <v>153701</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>276</v>
       </c>
@@ -12281,7 +12280,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>277</v>
       </c>
@@ -12319,7 +12318,7 @@
         <v>6972</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>278</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>6835</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>279</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>12896</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>280</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>52664</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>281</v>
       </c>
@@ -12471,7 +12470,7 @@
         <v>15841</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
@@ -12509,7 +12508,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>283</v>
       </c>
@@ -12547,7 +12546,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>284</v>
       </c>
@@ -12585,7 +12584,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>285</v>
       </c>
@@ -12623,7 +12622,7 @@
         <v>6431</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>286</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v>10082</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>287</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>11320</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>288</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>5171</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>289</v>
       </c>
@@ -12775,7 +12774,7 @@
         <v>7767</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>290</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>439241</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>290</v>
       </c>
@@ -12851,7 +12850,7 @@
         <v>439241</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>291</v>
       </c>
@@ -12889,7 +12888,7 @@
         <v>40974</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>292</v>
       </c>
@@ -12927,7 +12926,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>293</v>
       </c>
@@ -12965,7 +12964,7 @@
         <v>5592</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>294</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>295</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>60947</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>296</v>
       </c>
@@ -13079,7 +13078,7 @@
         <v>22751</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>297</v>
       </c>
@@ -13117,7 +13116,7 @@
         <v>30493</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>298</v>
       </c>
@@ -13155,7 +13154,7 @@
         <v>68959</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>299</v>
       </c>
@@ -13193,7 +13192,7 @@
         <v>5230</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>300</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>301</v>
       </c>
@@ -13269,7 +13268,7 @@
         <v>55374</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>302</v>
       </c>
@@ -13307,7 +13306,7 @@
         <v>10438</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>303</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>36216</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>304</v>
       </c>
@@ -13383,7 +13382,7 @@
         <v>24882</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>305</v>
       </c>
@@ -13421,7 +13420,7 @@
         <v>5158</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>306</v>
       </c>
@@ -13459,7 +13458,7 @@
         <v>18916</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>307</v>
       </c>
@@ -13497,7 +13496,7 @@
         <v>243354</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>307</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>243354</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>308</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>5636</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>309</v>
       </c>
@@ -13611,7 +13610,7 @@
         <v>5636</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>310</v>
       </c>
@@ -13649,7 +13648,7 @@
         <v>137335</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>311</v>
       </c>
@@ -13687,7 +13686,7 @@
         <v>14687</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>312</v>
       </c>
@@ -13725,7 +13724,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>313</v>
       </c>
@@ -13763,7 +13762,7 @@
         <v>67960</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>314</v>
       </c>
@@ -13801,7 +13800,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>315</v>
       </c>
@@ -13839,7 +13838,7 @@
         <v>32710</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>316</v>
       </c>
@@ -13877,7 +13876,7 @@
         <v>11113</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>317</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>55377</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>318</v>
       </c>
@@ -13953,7 +13952,7 @@
         <v>34004</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>319</v>
       </c>
@@ -13991,7 +13990,7 @@
         <v>21373</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>320</v>
       </c>
@@ -14029,7 +14028,7 @@
         <v>4246</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>321</v>
       </c>
@@ -14067,7 +14066,7 @@
         <v>4246</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>322</v>
       </c>
@@ -14105,7 +14104,7 @@
         <v>8375</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>323</v>
       </c>
@@ -14143,7 +14142,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>324</v>
       </c>
@@ -14181,7 +14180,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>325</v>
       </c>
@@ -14219,7 +14218,7 @@
         <v>13687</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>326</v>
       </c>
@@ -14257,7 +14256,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>327</v>
       </c>
@@ -14295,7 +14294,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>328</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>329</v>
       </c>
@@ -14371,7 +14370,7 @@
         <v>14591</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>330</v>
       </c>
@@ -14409,7 +14408,7 @@
         <v>14591</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>331</v>
       </c>
@@ -14447,7 +14446,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>332</v>
       </c>
@@ -14485,7 +14484,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>333</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>334</v>
       </c>
@@ -14561,7 +14560,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>335</v>
       </c>
@@ -14599,7 +14598,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>336</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>254157</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>336</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>254157</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>337</v>
       </c>
@@ -14711,7 +14710,7 @@
         <v>248982</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>338</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>10883</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>339</v>
       </c>
@@ -14787,7 +14786,7 @@
         <v>33790</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>340</v>
       </c>
@@ -14825,7 +14824,7 @@
         <v>104286</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>341</v>
       </c>
@@ -14863,7 +14862,7 @@
         <v>20183</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>342</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>8552</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>343</v>
       </c>
@@ -14939,7 +14938,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>344</v>
       </c>
@@ -14977,7 +14976,7 @@
         <v>12420</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>345</v>
       </c>
@@ -15015,7 +15014,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>346</v>
       </c>
@@ -15053,7 +15052,7 @@
         <v>6779</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>347</v>
       </c>
@@ -15091,7 +15090,7 @@
         <v>5151</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>348</v>
       </c>
@@ -15129,7 +15128,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>349</v>
       </c>

--- a/realEstate2018.xlsx
+++ b/realEstate2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOC\UC\PDS_Analytics\202122\Week03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Costa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A62326-4067-4D08-8323-067BAD90481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51589D7-639F-4373-A65A-3F91784489F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAD60663-004E-4333-9356-C2E315362D14}"/>
   </bookViews>
@@ -1152,9 +1152,6 @@
     <t>100</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10,283,822</t>
-  </si>
-  <si>
     <t>collected waste</t>
   </si>
   <si>
@@ -1177,6 +1174,9 @@
   </si>
   <si>
     <t>339035</t>
+  </si>
+  <si>
+    <t>10283822</t>
   </si>
 </sst>
 </file>
@@ -1382,16 +1382,16 @@
     <tableColumn id="7" xr3:uid="{72501025-3095-4D2B-B7E6-1F7249684672}" name="842" dataCellStyle="TableEvenlineData"/>
     <tableColumn id="8" xr3:uid="{5ADBBAD9-DECA-4560-8164-5D5347D4CFED}" name="146.8" dataCellStyle="TableEvenlineData"/>
     <tableColumn id="9" xr3:uid="{7A8C4A1C-7F87-493E-9A5A-23BBFBA8F4FA}" name="100" dataCellStyle="TableEvenlineData"/>
-    <tableColumn id="10" xr3:uid="{57038FEA-ED29-4CAC-B33C-9D85DE9E58DB}" name=" 10,283,822" dataCellStyle="TableEvenlineData"/>
+    <tableColumn id="10" xr3:uid="{57038FEA-ED29-4CAC-B33C-9D85DE9E58DB}" name="10283822" dataCellStyle="TableEvenlineData"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1429,7 +1429,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1535,7 +1535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1677,7 +1677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1695,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E20E2BD-6DAA-4C9D-99D5-5A3A5891CEC3}">
   <dimension ref="A1:N354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B327" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>350</v>
@@ -1738,7 +1738,7 @@
         <v>352</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>354</v>
@@ -1758,16 +1758,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>360</v>
@@ -1788,7 +1788,7 @@
         <v>365</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="N2" s="5"/>
     </row>
